--- a/bin/resource/excel/language.xlsx
+++ b/bin/resource/excel/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opensource\ark_new\bin\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ARK\bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD1D35D-4B7D-461E-A99A-C9619633F88E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yangpengbo</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,8 +63,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -189,22 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>uint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,12 +212,15 @@
   <si>
     <t>Create Role</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,22 +648,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -686,9 +674,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -697,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -708,10 +696,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -722,7 +710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000001</v>
       </c>
@@ -730,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000002</v>
       </c>
@@ -741,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000003</v>
       </c>
@@ -752,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000004</v>
       </c>
@@ -763,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000005</v>
       </c>
@@ -774,15 +762,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000006</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000007</v>
       </c>
@@ -790,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000008</v>
       </c>
@@ -798,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000009</v>
       </c>
@@ -806,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000010</v>
       </c>
@@ -814,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000011</v>
       </c>
@@ -822,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000012</v>
       </c>
@@ -830,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000013</v>
       </c>
@@ -838,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000014</v>
       </c>
@@ -846,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10000015</v>
       </c>
@@ -854,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000016</v>
       </c>
@@ -862,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000017</v>
       </c>
@@ -870,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000018</v>
       </c>
@@ -878,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10000019</v>
       </c>
@@ -886,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10000020</v>
       </c>
@@ -894,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000021</v>
       </c>
@@ -902,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000022</v>
       </c>
@@ -910,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10000023</v>
       </c>
@@ -918,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000024</v>
       </c>
@@ -926,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10000025</v>
       </c>
@@ -934,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10000026</v>
       </c>
@@ -942,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10000027</v>
       </c>
@@ -950,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10000028</v>
       </c>
@@ -958,7 +946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10000029</v>
       </c>
@@ -966,12 +954,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000030</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
